--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>6.443060185090498</v>
+        <v>14.295814848018</v>
       </c>
       <c r="R2">
-        <v>6.443060185090498</v>
+        <v>57.183259392072</v>
       </c>
       <c r="S2">
-        <v>7.531568701854121E-05</v>
+        <v>0.0001358832986451131</v>
       </c>
       <c r="T2">
-        <v>7.531568701854121E-05</v>
+        <v>7.050176613632373E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>859.9979851815211</v>
+        <v>941.0940715067102</v>
       </c>
       <c r="R3">
-        <v>859.9979851815211</v>
+        <v>5646.564429040261</v>
       </c>
       <c r="S3">
-        <v>0.0100528843791326</v>
+        <v>0.008945203063358165</v>
       </c>
       <c r="T3">
-        <v>0.0100528843791326</v>
+        <v>0.006961701188111588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>703.6876346337706</v>
+        <v>726.301290699182</v>
       </c>
       <c r="R4">
-        <v>703.6876346337706</v>
+        <v>4357.807744195093</v>
       </c>
       <c r="S4">
-        <v>0.008225705817793822</v>
+        <v>0.006903573964802082</v>
       </c>
       <c r="T4">
-        <v>0.008225705817793822</v>
+        <v>0.005372781225039759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>704.1829416515843</v>
+        <v>739.7087957704721</v>
       </c>
       <c r="R5">
-        <v>704.1829416515843</v>
+        <v>4438.252774622832</v>
       </c>
       <c r="S5">
-        <v>0.008231495673430756</v>
+        <v>0.007031013780934042</v>
       </c>
       <c r="T5">
-        <v>0.008231495673430756</v>
+        <v>0.005471962642509505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>35.13406316144007</v>
+        <v>40.25531048171601</v>
       </c>
       <c r="R6">
-        <v>35.13406316144007</v>
+        <v>241.531862890296</v>
       </c>
       <c r="S6">
-        <v>0.0004106970955944147</v>
+        <v>0.000382631171037945</v>
       </c>
       <c r="T6">
-        <v>0.0004106970955944147</v>
+        <v>0.0002977868539323436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>1218.168984818275</v>
+        <v>1279.469827647297</v>
       </c>
       <c r="R7">
-        <v>1218.168984818275</v>
+        <v>5117.879310589188</v>
       </c>
       <c r="S7">
-        <v>0.01423969842910579</v>
+        <v>0.01216150198823491</v>
       </c>
       <c r="T7">
-        <v>0.01423969842910579</v>
+        <v>0.006309880445868978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>15.83997990606981</v>
+        <v>37.597914448973</v>
       </c>
       <c r="R8">
-        <v>15.83997990606981</v>
+        <v>225.587486693838</v>
       </c>
       <c r="S8">
-        <v>0.0001851603018929086</v>
+        <v>0.0003573723283224758</v>
       </c>
       <c r="T8">
-        <v>0.0001851603018929086</v>
+        <v>0.0002781288859580994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>2114.267198071266</v>
+        <v>2475.072233734936</v>
       </c>
       <c r="R9">
-        <v>2114.267198071266</v>
+        <v>22275.65010361442</v>
       </c>
       <c r="S9">
-        <v>0.02471457381881758</v>
+        <v>0.02352583487407573</v>
       </c>
       <c r="T9">
-        <v>0.02471457381881758</v>
+        <v>0.02746385377181442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>1729.985080465636</v>
+        <v>1910.168401185783</v>
       </c>
       <c r="R10">
-        <v>1729.985080465636</v>
+        <v>17191.51561067205</v>
       </c>
       <c r="S10">
-        <v>0.0202225357398653</v>
+        <v>0.01815636157016764</v>
       </c>
       <c r="T10">
-        <v>0.0202225357398653</v>
+        <v>0.02119557762180652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>1731.202770970478</v>
+        <v>1945.43006580607</v>
       </c>
       <c r="R11">
-        <v>1731.202770970478</v>
+        <v>17508.87059225463</v>
       </c>
       <c r="S11">
-        <v>0.02023676984513724</v>
+        <v>0.01849152758590452</v>
       </c>
       <c r="T11">
-        <v>0.02023676984513724</v>
+        <v>0.0215868474957451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>86.37554803284547</v>
+        <v>105.8712452349816</v>
       </c>
       <c r="R12">
-        <v>86.37554803284547</v>
+        <v>952.8412071148341</v>
       </c>
       <c r="S12">
-        <v>0.001009680734746293</v>
+        <v>0.001006317876045347</v>
       </c>
       <c r="T12">
-        <v>0.001009680734746293</v>
+        <v>0.00117476668282354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>2994.814837578288</v>
+        <v>3364.998611925555</v>
       </c>
       <c r="R13">
-        <v>2994.814837578288</v>
+        <v>20189.99167155333</v>
       </c>
       <c r="S13">
-        <v>0.03500767189905763</v>
+        <v>0.03198468336263217</v>
       </c>
       <c r="T13">
-        <v>0.03500767189905763</v>
+        <v>0.02489242631943299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>82.78269219721949</v>
+        <v>236.977085028861</v>
       </c>
       <c r="R14">
-        <v>82.78269219721949</v>
+        <v>1421.862510173166</v>
       </c>
       <c r="S14">
-        <v>0.0009676823057629786</v>
+        <v>0.002252493359725453</v>
       </c>
       <c r="T14">
-        <v>0.0009676823057629786</v>
+        <v>0.001753027358635187</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>11049.55509530303</v>
+        <v>15600.2111229443</v>
       </c>
       <c r="R15">
-        <v>11049.55509530303</v>
+        <v>140401.9001064987</v>
       </c>
       <c r="S15">
-        <v>0.1291629768068481</v>
+        <v>0.1482817292670624</v>
       </c>
       <c r="T15">
-        <v>0.1291629768068481</v>
+        <v>0.1731027932237142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>9041.225006042476</v>
+        <v>12039.66087644554</v>
       </c>
       <c r="R16">
-        <v>9041.225006042476</v>
+        <v>108356.9478880098</v>
       </c>
       <c r="S16">
-        <v>0.1056867471756729</v>
+        <v>0.1144383060253995</v>
       </c>
       <c r="T16">
-        <v>0.1056867471756729</v>
+        <v>0.1335942770744793</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>9047.588883954666</v>
+        <v>12261.91273848224</v>
       </c>
       <c r="R17">
-        <v>9047.588883954666</v>
+        <v>110357.2146463402</v>
       </c>
       <c r="S17">
-        <v>0.1057611372672272</v>
+        <v>0.1165508345146554</v>
       </c>
       <c r="T17">
-        <v>0.1057611372672272</v>
+        <v>0.1360604243473928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>451.4147397011022</v>
+        <v>667.299222626082</v>
       </c>
       <c r="R18">
-        <v>451.4147397011022</v>
+        <v>6005.693003634738</v>
       </c>
       <c r="S18">
-        <v>0.00527678001977362</v>
+        <v>0.006342752792879314</v>
       </c>
       <c r="T18">
-        <v>0.00527678001977362</v>
+        <v>0.007404474108859813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>15651.46145115423</v>
+        <v>21209.35625997371</v>
       </c>
       <c r="R19">
-        <v>15651.46145115423</v>
+        <v>127256.1375598422</v>
       </c>
       <c r="S19">
-        <v>0.182956629020118</v>
+        <v>0.2015972731448863</v>
       </c>
       <c r="T19">
-        <v>0.182956629020118</v>
+        <v>0.1568952617433294</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>37.13313674817198</v>
+        <v>81.98401311074498</v>
       </c>
       <c r="R20">
-        <v>37.13313674817198</v>
+        <v>491.9040786644699</v>
       </c>
       <c r="S20">
-        <v>0.000434065122007351</v>
+        <v>0.000779267097125054</v>
       </c>
       <c r="T20">
-        <v>0.000434065122007351</v>
+        <v>0.0006064730601962568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>4956.406097337932</v>
+        <v>5397.010909633274</v>
       </c>
       <c r="R21">
-        <v>4956.406097337932</v>
+        <v>48573.09818669948</v>
       </c>
       <c r="S21">
-        <v>0.05793755135606417</v>
+        <v>0.05129918462299524</v>
       </c>
       <c r="T21">
-        <v>0.05793755135606417</v>
+        <v>0.05988621924111856</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>4055.546341988185</v>
+        <v>4165.211649148366</v>
       </c>
       <c r="R22">
-        <v>4055.546341988185</v>
+        <v>37486.90484233529</v>
       </c>
       <c r="S22">
-        <v>0.0474070162636672</v>
+        <v>0.03959079663932556</v>
       </c>
       <c r="T22">
-        <v>0.0474070162636672</v>
+        <v>0.04621794956191951</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>4058.400933237754</v>
+        <v>4242.101360104535</v>
       </c>
       <c r="R23">
-        <v>4058.400933237754</v>
+        <v>38178.91224094082</v>
       </c>
       <c r="S23">
-        <v>0.04744038480205459</v>
+        <v>0.04032164183196893</v>
       </c>
       <c r="T23">
-        <v>0.04744038480205459</v>
+        <v>0.04707113184463242</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>202.4873172707049</v>
+        <v>230.8572080288011</v>
       </c>
       <c r="R24">
-        <v>202.4873172707049</v>
+        <v>2077.71487225921</v>
       </c>
       <c r="S24">
-        <v>0.002366960881115882</v>
+        <v>0.002194323253095555</v>
       </c>
       <c r="T24">
-        <v>0.002366960881115882</v>
+        <v>0.002561633764484037</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N25">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O25">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P25">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q25">
-        <v>7020.644568913564</v>
+        <v>7337.537051214791</v>
       </c>
       <c r="R25">
-        <v>7020.644568913564</v>
+        <v>44025.22230728875</v>
       </c>
       <c r="S25">
-        <v>0.08206731798723502</v>
+        <v>0.06974409986766407</v>
       </c>
       <c r="T25">
-        <v>0.08206731798723502</v>
+        <v>0.05427910126505413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N26">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O26">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P26">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q26">
-        <v>3.204507808378132</v>
+        <v>7.136177008309001</v>
       </c>
       <c r="R26">
-        <v>3.204507808378132</v>
+        <v>42.817062049854</v>
       </c>
       <c r="S26">
-        <v>3.745886274704865E-05</v>
+        <v>6.78301504260795E-05</v>
       </c>
       <c r="T26">
-        <v>3.745886274704865E-05</v>
+        <v>5.278954937818364E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N27">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P27">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q27">
-        <v>427.7269153997414</v>
+        <v>469.7748220118551</v>
       </c>
       <c r="R27">
-        <v>427.7269153997414</v>
+        <v>4227.973398106696</v>
       </c>
       <c r="S27">
-        <v>0.004999882907224543</v>
+        <v>0.00446526155479986</v>
       </c>
       <c r="T27">
-        <v>0.004999882907224543</v>
+        <v>0.005212707266302531</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N28">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O28">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P28">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q28">
-        <v>349.9847052587144</v>
+        <v>362.5546795964021</v>
       </c>
       <c r="R28">
-        <v>349.9847052587144</v>
+        <v>3262.992116367619</v>
       </c>
       <c r="S28">
-        <v>0.004091120952670643</v>
+        <v>0.003446122262111658</v>
       </c>
       <c r="T28">
-        <v>0.004091120952670643</v>
+        <v>0.004022972973882493</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N29">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O29">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P29">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q29">
-        <v>350.2310501880697</v>
+        <v>369.2474306179916</v>
       </c>
       <c r="R29">
-        <v>350.2310501880697</v>
+        <v>3323.226875561924</v>
       </c>
       <c r="S29">
-        <v>0.004094000583942887</v>
+        <v>0.003509737599571776</v>
       </c>
       <c r="T29">
-        <v>0.004094000583942887</v>
+        <v>0.004097236962174552</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N30">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O30">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P30">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q30">
-        <v>17.47420891728079</v>
+        <v>20.09462378856912</v>
       </c>
       <c r="R30">
-        <v>17.47420891728079</v>
+        <v>180.851614097122</v>
       </c>
       <c r="S30">
-        <v>0.0002042635039722257</v>
+        <v>0.0001910016179177011</v>
       </c>
       <c r="T30">
-        <v>0.0002042635039722257</v>
+        <v>0.0002229736174188717</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N31">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O31">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P31">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q31">
-        <v>605.8661430491345</v>
+        <v>638.6850462145985</v>
       </c>
       <c r="R31">
-        <v>605.8661430491345</v>
+        <v>3832.110277287592</v>
       </c>
       <c r="S31">
-        <v>0.007082228551987119</v>
+        <v>0.006070771886569197</v>
       </c>
       <c r="T31">
-        <v>0.007082228551987119</v>
+        <v>0.004724643985847882</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N32">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O32">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P32">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q32">
-        <v>10.84582023658155</v>
+        <v>24.0307146457875</v>
       </c>
       <c r="R32">
-        <v>10.84582023658155</v>
+        <v>96.12285858315001</v>
       </c>
       <c r="S32">
-        <v>0.0001267814328799822</v>
+        <v>0.0002284145961306819</v>
       </c>
       <c r="T32">
-        <v>0.0001267814328799822</v>
+        <v>0.0001185107559140588</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N33">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P33">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q33">
-        <v>1447.663576491967</v>
+        <v>1581.942920193563</v>
       </c>
       <c r="R33">
-        <v>1447.663576491967</v>
+        <v>9491.657521161376</v>
       </c>
       <c r="S33">
-        <v>0.016922358895159</v>
+        <v>0.01503654213134879</v>
       </c>
       <c r="T33">
-        <v>0.016922358895159</v>
+        <v>0.01170235180570651</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N34">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O34">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P34">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q34">
-        <v>1184.541098281849</v>
+        <v>1220.884521044213</v>
       </c>
       <c r="R34">
-        <v>1184.541098281849</v>
+        <v>7325.307126265276</v>
       </c>
       <c r="S34">
-        <v>0.01384660767646419</v>
+        <v>0.01160464218010259</v>
       </c>
       <c r="T34">
-        <v>0.01384660767646419</v>
+        <v>0.009031438490620583</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N35">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O35">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P35">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q35">
-        <v>1185.374865268778</v>
+        <v>1243.42202113815</v>
       </c>
       <c r="R35">
-        <v>1185.374865268778</v>
+        <v>7460.5321268289</v>
       </c>
       <c r="S35">
-        <v>0.01385635393548242</v>
+        <v>0.01181886360704024</v>
       </c>
       <c r="T35">
-        <v>0.01385635393548242</v>
+        <v>0.009198158636811527</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N36">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O36">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P36">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q36">
-        <v>59.1423519698705</v>
+        <v>67.667627865075</v>
       </c>
       <c r="R36">
-        <v>59.1423519698705</v>
+        <v>406.0057671904501</v>
       </c>
       <c r="S36">
-        <v>0.0006913402548699934</v>
+        <v>0.0006431882745789175</v>
       </c>
       <c r="T36">
-        <v>0.0006913402548699934</v>
+        <v>0.0005005682423976746</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N37">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O37">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P37">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q37">
-        <v>2050.584884755733</v>
+        <v>2150.739545311744</v>
       </c>
       <c r="R37">
-        <v>2050.584884755733</v>
+        <v>8602.958181246975</v>
       </c>
       <c r="S37">
-        <v>0.02397016401346015</v>
+        <v>0.0204430168584597</v>
       </c>
       <c r="T37">
-        <v>0.02397016401346015</v>
+        <v>0.01060666622055015</v>
       </c>
     </row>
   </sheetData>
